--- a/napadi.xlsx
+++ b/napadi.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24020"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8059BC1-7C21-41F8-AA84-0BD8F24490AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="264">
   <si>
     <t>'ID</t>
   </si>
@@ -52,12 +51,6 @@
     <t>Skills Required</t>
   </si>
   <si>
-    <t>Resources Required</t>
-  </si>
-  <si>
-    <t>Indicators</t>
-  </si>
-  <si>
     <t>Consequences</t>
   </si>
   <si>
@@ -82,9 +75,6 @@
     <t>::The target application must use a parameter encoding where separators and parameter identifiers are expressed in regular text.::The target application must accept a string as user input, fail to sanitize characters that have a special meaning in the parameter encoding, and insert the user-supplied string in an encoding which is then processed.::</t>
   </si>
   <si>
-    <t>::None: No specialized resources are required to execute this type of attack. The only requirement is the ability to provide string input to the target.::</t>
-  </si>
-  <si>
     <t>::SCOPE:IntegrityTECHNICAL IMPACT:Modify Data:NOTE:Integrity Modify Data Successful parameter injection attacks mean a compromise to integrity of the application.::</t>
   </si>
   <si>
@@ -112,9 +102,6 @@
     <t>::SKILL:The attacker has to identify injection vector, identify the operating system-specific commands, and optionally collect the output.:LEVEL:Medium::</t>
   </si>
   <si>
-    <t>::Ability to communicate synchronously or asynchronously with server. Optionally, ability to capture output directly through synchronous communication or other method such as FTP.::</t>
-  </si>
-  <si>
     <t>::SCOPE:Confidentiality:SCOPE:Access Control:SCOPE:AuthorizationTECHNICAL IMPACT:Gain Privileges::SCOPE:IntegrityTECHNICAL IMPACT:Modify Data::SCOPE:ConfidentialityTECHNICAL IMPACT:Read Data::</t>
   </si>
   <si>
@@ -163,9 +150,6 @@
     <t>::SKILL:In order to discover format string vulnerabilities it takes only low skill, however, converting this discovery into a working exploit requires advanced knowledge on the part of the adversary.:LEVEL:High::</t>
   </si>
   <si>
-    <t>::None: No specialized resources are required to execute this type of attack.::</t>
-  </si>
-  <si>
     <t>::SCOPE:IntegrityTECHNICAL IMPACT:Modify Data::SCOPE:ConfidentialityTECHNICAL IMPACT:Read Data::SCOPE:Access ControlTECHNICAL IMPACT:Gain Privileges::SCOPE:IntegrityTECHNICAL IMPACT:Execute Unauthorized Commands:NOTE:Integrity Execute Unauthorized Commands Run Arbitrary Code::SCOPE:Access ControlTECHNICAL IMPACT:Bypass Protection Mechanism::</t>
   </si>
   <si>
@@ -205,9 +189,6 @@
     <t>::SKILL:The attacker needs to have knowledge of Flash, especially how to insert content the executes commands.:LEVEL:Medium::</t>
   </si>
   <si>
-    <t>::None: No specialized resources are required to execute this type of attack. The attacker may need to be able to serve the injected Flash content.::</t>
-  </si>
-  <si>
     <t>::SCOPE:ConfidentialityTECHNICAL IMPACT:Other:NOTE:Confidentiality Other Information Leakage::SCOPE:IntegrityTECHNICAL IMPACT:Modify Data::SCOPE:ConfidentialityTECHNICAL IMPACT:Read Data::SCOPE:AuthorizationTECHNICAL IMPACT:Execute Unauthorized Commands:NOTE:Authorization Execute Unauthorized Commands Run Arbitrary Code::SCOPE:Accountability:SCOPE:Authentication:SCOPE:Authorization:SCOPE:Non-RepudiationTECHNICAL IMPACT:Gain Privileges::SCOPE:Access Control:SCOPE:AuthorizationTECHNICAL IMPACT:Bypass Protection Mechanism::</t>
   </si>
   <si>
@@ -262,9 +243,6 @@
     <t>::SKILL:The attacker needs to be able to poison the resolver - DNS entries or local hosts file or router entry pointing to a trusted DNS server - in order to successfully carry out a pharming attack. Setting up a fake website, identical to the targeted one, does not require special skills.:LEVEL:Medium::</t>
   </si>
   <si>
-    <t>::None: No specialized resources are required to execute this type of attack. Having knowledge of the way the target site has been structured, in order to create a fake version, is required. Poisoning the resolver requires knowledge of a vulnerability that can be exploited.::</t>
-  </si>
-  <si>
     <t>::SCOPE:ConfidentialityTECHNICAL IMPACT:Read Data::</t>
   </si>
   <si>
@@ -292,12 +270,6 @@
     <t>::SKILL:Basic knowledge about websites: obtaining them, designing and implementing them, etc.:LEVEL:Medium::</t>
   </si>
   <si>
-    <t>::Some web development tools to put up a fake website.::</t>
-  </si>
-  <si>
-    <t>::You receive an e-mail from an entity that you are not even a customer of prompting you to log into your account.::You receive any e-mail that provides you with a link which takes you to a website on which you need to enter your log in information.::</t>
-  </si>
-  <si>
     <t>::SCOPE:Confidentiality:SCOPE:Access Control:SCOPE:AuthorizationTECHNICAL IMPACT:Gain Privileges::SCOPE:ConfidentialityTECHNICAL IMPACT:Read Data::SCOPE:IntegrityTECHNICAL IMPACT:Modify Data::</t>
   </si>
   <si>
@@ -322,9 +294,6 @@
     <t>::SKILL:Spear phishing attacks require specific knowledge of the victims being targeted, such as which bank is being used by the victims, or websites they commonly log into (Google, Facebook, etc).:LEVEL:Medium::</t>
   </si>
   <si>
-    <t>::An adversay must have the ability communicate their phishing scheme to the victims (via email, instance message, etc.), as well as a website or other platform for victims to enter personal information into.::</t>
-  </si>
-  <si>
     <t>::SCOPE:ConfidentialityTECHNICAL IMPACT:Read Data:NOTE:Confidentiality Read Data Information Leakage::SCOPE:Accountability:SCOPE:Authentication:SCOPE:Authorization:SCOPE:Non-RepudiationTECHNICAL IMPACT:Gain Privileges:NOTE:Accountability Authentication Authorization Non-Repudiation Gain Privileges Privilege Escalation::SCOPE:IntegrityTECHNICAL IMPACT:Modify Data:NOTE:Integrity Modify Data Data Modification::</t>
   </si>
   <si>
@@ -340,12 +309,6 @@
     <t>::An adversary needs mobile phone numbers to initiate contact with the victim.::An adversary needs to correctly guess the entity with which the victim does business and impersonate it. Most of the time phishers just use the most popular banks/services and send out their hooks to many potential victims.::An adversary needs to have a sufficiently compelling call to action to prompt the user to take action.::The replicated website needs to look extremely similar to the original website and the URL used to get to that website needs to look like the real URL of the said business entity.::</t>
   </si>
   <si>
-    <t>::Either mobile phone or access to a web resource that allows text messages to be sent to mobile phones. Resources needed for regular Phishing attack.::</t>
-  </si>
-  <si>
-    <t>::You receive a text message from an entity that you are not even a customer of prompting you to log into your account.::You receive any text message that provides you with a link that takes you to a website which requires you to enter your credentials.::</t>
-  </si>
-  <si>
     <t>::Do not follow any links that you receive within text messages and do not input any login credentials on the page that they take you too. Instead, call your Bank, PayPal, eBay, etc., and inquire about the problem. Safe practices also include leveraging the entity's mobile application or directly typing the entity's URL in the browser and only then logging in. Never reply to any text messages that ask you to provide sensitive information of any kind.::</t>
   </si>
   <si>
@@ -361,12 +324,6 @@
     <t>::An adversary needs phone numbers to initiate contact with the victim, in addition to a legitimate-looking telephone number to call the victim from.::An adversary needs to correctly guess the entity with which the victim does business and impersonate it. Most of the time phishers just use the most popular banks/services and send out their hooks to many potential victims.::An adversary needs to have a sufficiently compelling call to action to prompt the user to take action.::If passively conducting this attack via a spoofed website, replicated website needs to look extremely similar to the original website and the URL used to get to that website needs to look like the real URL of the said business entity.::</t>
   </si>
   <si>
-    <t>::Legitimate-looking telephone number(s) to initiate calls with victims::</t>
-  </si>
-  <si>
-    <t>::You receive a call from an entity that you are not even a customer of prompting you to log into your account.::You receive any call that requests you provide sensitive information.::You are redirected to a website that instructs you to call the number on-screen to address the call-to-action.::</t>
-  </si>
-  <si>
     <t>::Do not accept calls from unknown numbers or from numbers that may be flagged as spam. Also, do not call numbers that appear on-screen after being unexpectedly redirected to potentially malicious websites. In either case, do not provide sensitive information over voice calls that are not legitimately initiated. Instead, call your Bank, PayPal, eBay, etc., via the number on their public-facing website and inquire about the problem.::</t>
   </si>
   <si>
@@ -385,9 +342,6 @@
     <t>::This attack is only applicable when a vulnerable entity associates data or services with an identity. Without such an association, there would be no reason to fake the source.::</t>
   </si>
   <si>
-    <t>::Resources required vary depending on the nature of the attack. Possible tools needed by an attacker could include tools to create custom network packets, specific client software, and tools to capture network traffic. Many variants of this attack require no attacker resources, however.::</t>
-  </si>
-  <si>
     <t>::SCOPE:IntegrityTECHNICAL IMPACT:Alter Execution Logic:NOTE:Integrity Alter Execution Logic By faking the source of data or services, an adversary can cause a target to make incorrect decisions about how to proceed.::SCOPE:IntegrityTECHNICAL IMPACT:Gain Privileges:NOTE:Integrity Gain Privileges By impersonating identities that have an increased level of access, an adversary gain privilege that they many not have otherwise had.::SCOPE:IntegrityTECHNICAL IMPACT:Hide Activities:NOTE:Integrity Hide Activities Faking the source of data or services can be used to create a false trail in logs as the target will associate any actions with the impersonated identity instead of the adversary.::</t>
   </si>
   <si>
@@ -406,9 +360,6 @@
     <t>::SKILL:Setup DNS server and the adversary's web server. Write a malicious script to allow the victim to connect to the web server.:LEVEL:Medium::</t>
   </si>
   <si>
-    <t>::The adversary must serve some web content that a victim accesses initially. This content must include executable content that queries the adversary's DNS name (to provide the second DNS resolution) and then performs the follow-on attack against the internal system. The adversary also requires a customized DNS server that serves an IP address for their registered DNS name, but which resolves subsequent requests by a single client to addresses internal to that client's network.::</t>
-  </si>
-  <si>
     <t>::SCOPE:IntegrityTECHNICAL IMPACT:Modify Data::SCOPE:ConfidentialityTECHNICAL IMPACT:Read Data::SCOPE:AuthorizationTECHNICAL IMPACT:Execute Unauthorized Commands:NOTE:Authorization Execute Unauthorized Commands Run Arbitrary Code::SCOPE:Accountability:SCOPE:Authentication:SCOPE:Authorization:SCOPE:Non-RepudiationTECHNICAL IMPACT:Gain Privileges::SCOPE:Access Control:SCOPE:AuthorizationTECHNICAL IMPACT:Bypass Protection Mechanism::</t>
   </si>
   <si>
@@ -505,9 +456,6 @@
     <t>In this attack pattern, the adversary transmits disruptive signals in the direction of the target consumer-level satellite dish (as opposed to the satellite itself). The transmission disruption occurs in a more targeted range. Portable terrestrial jammers have a range of 3-5 kilometers in urban areas and 20 kilometers in rural areas. This technique requires a terrestrial jammer that is more powerful than the frequencies sent from the satellite.</t>
   </si>
   <si>
-    <t>::A terrestrial satellite jammer with a signal more powerful than that of the satellite attempting to communicate with the target. The adversary must know the location of the target satellite dish.::</t>
-  </si>
-  <si>
     <t>::SCOPE:AvailabilityTECHNICAL IMPACT:Other:NOTE:Availability Other A successful attack will deny, degrade, or disrupt availability of satellite communications for the target by overwhelming its resources to accurately receive authorized transmissions.::</t>
   </si>
   <si>
@@ -652,9 +600,6 @@
     <t>::SKILL:The adversary must typically overcome network and host defenses in order to place malware on the system.:LEVEL:High::</t>
   </si>
   <si>
-    <t>::Malware capable of acting on the adversary's objectives.::</t>
-  </si>
-  <si>
     <t>::To mitigate this type of an attack, explicit intents should be used whenever sensitive data is being sent. An 'explicit intent' is delivered to a specific application as declared within the intent, whereas an 'implicit intent' is directed to an application as defined by the Android operating system. If an implicit intent must be used, then it should be assumed that the intent will be received by an unknown application and any response should be treated accordingly (i.e., with appropriate security controls).::Never use implicit intents for inter-application communication.::</t>
   </si>
   <si>
@@ -673,12 +618,6 @@
     <t>::SKILL:Once an adversary has gained access to the target system, impersonating a task is trivial.:LEVEL:Low::</t>
   </si>
   <si>
-    <t>::Malware or some other means to initially comprise the target system.::Additional malware to impersonate a legitimate task.::</t>
-  </si>
-  <si>
-    <t>::Credential or permission elevation prompts that appear illegitimate or unexpected.::</t>
-  </si>
-  <si>
     <t>::The only known mitigation to this attack is to avoid installing the malicious application on the device. However, to impersonate a running task the malicious application does need the GET_TASKS permission to be able to query the task list, and being suspicious of applications with that permission can help.::</t>
   </si>
   <si>
@@ -703,9 +642,6 @@
     <t>::SKILL:Manual or user-assisted attacks require deceptive mechanisms to trick the user into clicking a link or downloading and installing software. Automated update attacks require the attacker to host a payload and then trigger the installation of the payload code.:LEVEL:Medium::</t>
   </si>
   <si>
-    <t>::Software Integrity Attacks are usually a late stage focus of attack activity which depends upon the success of a chain of prior events. The resources required to perform the attack vary with respect to the overall attack strategy, existing countermeasures which must be bypassed, and the success of early phase attack vectors.::</t>
-  </si>
-  <si>
     <t>::494::</t>
   </si>
   <si>
@@ -730,9 +666,6 @@
     <t>::SKILL:This attack requires advanced cyber capabilities:LEVEL:High::</t>
   </si>
   <si>
-    <t>::Manual or user-assisted attacks require deceptive mechanisms to trick the user into clicking a link or downloading and installing software. Automated update attacks require the attacker to host a payload and then trigger the installation of the payload code.::</t>
-  </si>
-  <si>
     <t>::SCOPE:Access Control:SCOPE:Availability:SCOPE:ConfidentialityTECHNICAL IMPACT:Execute Unauthorized Commands:NOTE:Access Control Availability Confidentiality Execute Unauthorized Commands Utilize the built-in software update mechanisms of the commercial components to deliver software that could compromise security credentials, enable a denial-of-service attack, or enable tracking.::</t>
   </si>
   <si>
@@ -764,9 +697,6 @@
   </si>
   <si>
     <t>::SKILL:The adversary requires strong inter-personal and communication skills.:LEVEL:Low::</t>
-  </si>
-  <si>
-    <t>::There are no necessary resources required for this attack.::</t>
   </si>
   <si>
     <t>::SCOPE:Confidentiality:SCOPE:Integrity:SCOPE:AvailabilityTECHNICAL IMPACT:Other:NOTE:Confidentiality Integrity Availability Other Attacks that influence the perception of the target can result in a wide variety of consequences and negatively affect potentially the confidentiality, availability, and/or integrity of an application or system.::</t>
@@ -892,8 +822,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -926,7 +856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalan" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -984,7 +914,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1036,7 +966,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1230,35 +1160,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="61.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" customWidth="1"/>
-    <col min="11" max="11" width="57.42578125" customWidth="1"/>
-    <col min="12" max="12" width="31" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" customWidth="1"/>
-    <col min="14" max="14" width="49.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" customWidth="1"/>
+    <col min="8" max="8" width="35.44140625" customWidth="1"/>
+    <col min="9" max="9" width="49.88671875" customWidth="1"/>
+    <col min="10" max="10" width="36.21875" customWidth="1"/>
+    <col min="11" max="11" width="29.33203125" customWidth="1"/>
+    <col min="12" max="12" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1295,1400 +1225,1313 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>137</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>135</v>
       </c>
       <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="J5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="K5" t="s">
         <v>43</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>44</v>
       </c>
-      <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>182</v>
       </c>
       <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" t="s">
+      <c r="J7" t="s">
         <v>55</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="K7" t="s">
         <v>56</v>
       </c>
-      <c r="G7" t="s">
+      <c r="L7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>410</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
       </c>
       <c r="L9" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>89</v>
       </c>
       <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" t="s">
+      <c r="K10" t="s">
         <v>74</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="L10" t="s">
         <v>75</v>
       </c>
-      <c r="G10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" t="s">
-        <v>78</v>
-      </c>
-      <c r="K10" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" t="s">
-        <v>81</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>98</v>
       </c>
       <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" t="s">
         <v>83</v>
       </c>
-      <c r="C11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" t="s">
-        <v>88</v>
-      </c>
-      <c r="J11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" t="s">
-        <v>91</v>
-      </c>
-      <c r="M11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>98</v>
+        <v>89</v>
+      </c>
+      <c r="J12" t="s">
+        <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>99</v>
-      </c>
-      <c r="L12" t="s">
-        <v>91</v>
-      </c>
-      <c r="M12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>164</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" t="s">
         <v>95</v>
       </c>
-      <c r="G13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" t="s">
-        <v>105</v>
-      </c>
-      <c r="K13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" t="s">
-        <v>106</v>
-      </c>
-      <c r="M13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>656</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" t="s">
-        <v>113</v>
-      </c>
-      <c r="M14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>194</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="I15" t="s">
-        <v>119</v>
-      </c>
-      <c r="K15" t="s">
-        <v>120</v>
-      </c>
-      <c r="N15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>105</v>
+      </c>
+      <c r="L15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>275</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="I16" t="s">
-        <v>126</v>
+        <v>111</v>
+      </c>
+      <c r="J16" t="s">
+        <v>112</v>
       </c>
       <c r="K16" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="L16" t="s">
-        <v>128</v>
-      </c>
-      <c r="M16" t="s">
-        <v>129</v>
-      </c>
-      <c r="N16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>543</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>544</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>598</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" t="s">
         <v>123</v>
       </c>
-      <c r="G19" t="s">
-        <v>139</v>
-      </c>
       <c r="H19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L19" t="s">
-        <v>141</v>
-      </c>
-      <c r="M19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>124</v>
+      </c>
+      <c r="J19" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>633</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="G20" t="s">
-        <v>145</v>
-      </c>
-      <c r="K20" t="s">
-        <v>146</v>
-      </c>
-      <c r="N20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>129</v>
+      </c>
+      <c r="I20" t="s">
+        <v>130</v>
+      </c>
+      <c r="L20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>195</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
-      </c>
-      <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>587</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="G22" t="s">
-        <v>153</v>
+        <v>137</v>
+      </c>
+      <c r="I22" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" t="s">
+        <v>139</v>
       </c>
       <c r="K22" t="s">
-        <v>154</v>
-      </c>
-      <c r="L22" t="s">
-        <v>155</v>
-      </c>
-      <c r="M22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>599</v>
       </c>
       <c r="B23" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I23" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="K23" t="s">
-        <v>160</v>
-      </c>
-      <c r="M23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>473</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G24" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="H24" t="s">
-        <v>165</v>
+        <v>148</v>
+      </c>
+      <c r="I24" t="s">
+        <v>149</v>
       </c>
       <c r="K24" t="s">
-        <v>166</v>
-      </c>
-      <c r="M24" t="s">
-        <v>167</v>
-      </c>
-      <c r="N24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>150</v>
+      </c>
+      <c r="L24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>154</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25" t="s">
-        <v>172</v>
-      </c>
-      <c r="L25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>155</v>
+      </c>
+      <c r="J25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>159</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C26" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="G26" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="H26" t="s">
-        <v>178</v>
+        <v>161</v>
+      </c>
+      <c r="I26" t="s">
+        <v>162</v>
+      </c>
+      <c r="J26" t="s">
+        <v>163</v>
       </c>
       <c r="K26" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="L26" t="s">
-        <v>180</v>
-      </c>
-      <c r="M26" t="s">
-        <v>181</v>
-      </c>
-      <c r="N26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>616</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C27" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="G27" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="H27" t="s">
-        <v>186</v>
-      </c>
-      <c r="K27" t="s">
-        <v>187</v>
-      </c>
-      <c r="N27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>169</v>
+      </c>
+      <c r="I27" t="s">
+        <v>170</v>
+      </c>
+      <c r="L27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>173</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>191</v>
-      </c>
-      <c r="K28" t="s">
-        <v>192</v>
-      </c>
-      <c r="L28" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>174</v>
+      </c>
+      <c r="I28" t="s">
+        <v>175</v>
+      </c>
+      <c r="J28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C29" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G29" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="H29" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>182</v>
+      </c>
+      <c r="J29" t="s">
+        <v>183</v>
       </c>
       <c r="K29" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>200</v>
-      </c>
-      <c r="M29" t="s">
-        <v>201</v>
-      </c>
-      <c r="N29" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>501</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C30" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G30" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H30" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="I30" t="s">
-        <v>208</v>
-      </c>
-      <c r="K30" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="J30" t="s">
+        <v>191</v>
       </c>
       <c r="L30" t="s">
-        <v>209</v>
-      </c>
-      <c r="N30" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>504</v>
       </c>
       <c r="B31" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C31" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H31" t="s">
         <v>196</v>
       </c>
-      <c r="G31" t="s">
-        <v>213</v>
-      </c>
-      <c r="H31" t="s">
-        <v>214</v>
-      </c>
       <c r="I31" t="s">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="J31" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="K31" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="L31" t="s">
-        <v>217</v>
-      </c>
-      <c r="M31" t="s">
-        <v>218</v>
-      </c>
-      <c r="N31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>506</v>
       </c>
       <c r="B32" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="C32" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G32" t="s">
-        <v>221</v>
-      </c>
-      <c r="N32" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>201</v>
+      </c>
+      <c r="L32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>184</v>
       </c>
       <c r="B33" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="C33" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H33" t="s">
-        <v>224</v>
-      </c>
-      <c r="I33" t="s">
-        <v>225</v>
-      </c>
-      <c r="N33" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>204</v>
+      </c>
+      <c r="L33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>185</v>
       </c>
       <c r="B34" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="C34" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>229</v>
-      </c>
-      <c r="N34" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>208</v>
+      </c>
+      <c r="L34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>186</v>
       </c>
       <c r="B35" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C35" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="H35" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="I35" t="s">
-        <v>234</v>
-      </c>
-      <c r="K35" t="s">
-        <v>235</v>
+        <v>213</v>
+      </c>
+      <c r="J35" t="s">
+        <v>214</v>
       </c>
       <c r="L35" t="s">
-        <v>236</v>
-      </c>
-      <c r="N35" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>416</v>
       </c>
       <c r="B36" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="C36" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>239</v>
-      </c>
-      <c r="K36" t="s">
-        <v>240</v>
-      </c>
-      <c r="L36" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>217</v>
+      </c>
+      <c r="I36" t="s">
+        <v>218</v>
+      </c>
+      <c r="J36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>417</v>
       </c>
       <c r="B37" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="C37" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="G37" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="H37" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="I37" t="s">
-        <v>246</v>
-      </c>
-      <c r="K37" t="s">
-        <v>247</v>
-      </c>
-      <c r="L37" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>224</v>
+      </c>
+      <c r="J37" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>425</v>
       </c>
       <c r="B38" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="C38" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F38" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="G38" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="H38" t="s">
-        <v>245</v>
-      </c>
-      <c r="K38" t="s">
-        <v>251</v>
-      </c>
-      <c r="L38" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>223</v>
+      </c>
+      <c r="I38" t="s">
+        <v>228</v>
+      </c>
+      <c r="J38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>426</v>
       </c>
       <c r="B39" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="C39" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F39" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="G39" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="H39" t="s">
-        <v>245</v>
-      </c>
-      <c r="K39" t="s">
-        <v>256</v>
-      </c>
-      <c r="L39" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>223</v>
+      </c>
+      <c r="I39" t="s">
+        <v>233</v>
+      </c>
+      <c r="J39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>427</v>
       </c>
       <c r="B40" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="C40" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F40" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="G40" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="H40" t="s">
-        <v>245</v>
-      </c>
-      <c r="K40" t="s">
-        <v>259</v>
-      </c>
-      <c r="L40" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>223</v>
+      </c>
+      <c r="I40" t="s">
+        <v>236</v>
+      </c>
+      <c r="J40" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>607</v>
       </c>
       <c r="B41" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="C41" t="s">
-        <v>261</v>
-      </c>
-      <c r="K41" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>238</v>
+      </c>
+      <c r="I41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>582</v>
       </c>
       <c r="B42" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="C42" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="G42" t="s">
-        <v>266</v>
-      </c>
-      <c r="K42" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>243</v>
+      </c>
+      <c r="I42" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>603</v>
       </c>
       <c r="B43" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="C43" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="G43" t="s">
-        <v>270</v>
-      </c>
-      <c r="K43" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>247</v>
+      </c>
+      <c r="I43" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>383</v>
       </c>
       <c r="B44" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C44" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F44" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="G44" t="s">
-        <v>275</v>
-      </c>
-      <c r="K44" t="s">
-        <v>276</v>
+        <v>252</v>
+      </c>
+      <c r="I44" t="s">
+        <v>253</v>
+      </c>
+      <c r="J44" t="s">
+        <v>254</v>
       </c>
       <c r="L44" t="s">
-        <v>277</v>
-      </c>
-      <c r="N44" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>407</v>
       </c>
       <c r="B45" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C45" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="G45" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="H45" t="s">
-        <v>245</v>
+        <v>223</v>
+      </c>
+      <c r="I45" t="s">
+        <v>260</v>
+      </c>
+      <c r="J45" t="s">
+        <v>219</v>
       </c>
       <c r="K45" t="s">
-        <v>283</v>
-      </c>
-      <c r="L45" t="s">
-        <v>241</v>
-      </c>
-      <c r="M45" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>412</v>
       </c>
       <c r="B46" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C46" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
